--- a/result/metrics_values/microservice-recruit.xlsx
+++ b/result/metrics_values/microservice-recruit.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.00016223136046943136</t>
+          <t>0.0001619800593406087</t>
         </is>
       </c>
     </row>
@@ -566,12 +566,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.00010133769276966929</t>
+          <t>0.0001011039159244914</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.00017597258175642416</t>
+          <t>0.00017581603622792224</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.00013318607366954343</t>
+          <t>0.00013294588878025285</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.0006452239329834036</t>
+          <t>0.0006446934990910702</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.0003217228225628154</t>
+          <t>0.0003211635536390888</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0006791080205697126</t>
+          <t>0.0006780560623560364</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.00037564633527725766</t>
+          <t>0.0003750492779127387</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.00022677544422752</t>
+          <t>0.0002263397691978703</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.00029115167743488555</t>
+          <t>0.00029064960646926736</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.00039066247460087553</t>
+          <t>0.0003895348451123704</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.0005800793717980802</t>
+          <t>0.0005787798940047156</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
